--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4943.927412526569</v>
+        <v>5403.852261587676</v>
       </c>
       <c r="AB2" t="n">
-        <v>6764.499596503201</v>
+        <v>7393.789065440956</v>
       </c>
       <c r="AC2" t="n">
-        <v>6118.905249047492</v>
+        <v>6688.136214283119</v>
       </c>
       <c r="AD2" t="n">
-        <v>4943927.412526569</v>
+        <v>5403852.261587677</v>
       </c>
       <c r="AE2" t="n">
-        <v>6764499.596503201</v>
+        <v>7393789.065440956</v>
       </c>
       <c r="AF2" t="n">
         <v>1.698636367816963e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>93</v>
+        <v>92.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6118905.249047493</v>
+        <v>6688136.21428312</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2409.1102145273</v>
+        <v>2702.630201992484</v>
       </c>
       <c r="AB3" t="n">
-        <v>3296.250877958066</v>
+        <v>3697.857873995893</v>
       </c>
       <c r="AC3" t="n">
-        <v>2981.661320482787</v>
+        <v>3344.939508477708</v>
       </c>
       <c r="AD3" t="n">
-        <v>2409110.2145273</v>
+        <v>2702630.201992484</v>
       </c>
       <c r="AE3" t="n">
-        <v>3296250.877958066</v>
+        <v>3697857.873995894</v>
       </c>
       <c r="AF3" t="n">
         <v>2.688020934027695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.38541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2981661.320482787</v>
+        <v>3344939.508477708</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1954.219921789203</v>
+        <v>2208.619989591778</v>
       </c>
       <c r="AB4" t="n">
-        <v>2673.84991109025</v>
+        <v>3021.931307196794</v>
       </c>
       <c r="AC4" t="n">
-        <v>2418.661428347716</v>
+        <v>2733.522424545045</v>
       </c>
       <c r="AD4" t="n">
-        <v>1954219.921789203</v>
+        <v>2208619.989591777</v>
       </c>
       <c r="AE4" t="n">
-        <v>2673849.91109025</v>
+        <v>3021931.307196794</v>
       </c>
       <c r="AF4" t="n">
         <v>3.074469145439928e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.04817708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2418661.428347716</v>
+        <v>2733522.424545045</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1744.177422624204</v>
+        <v>1988.822123545351</v>
       </c>
       <c r="AB5" t="n">
-        <v>2386.460497311627</v>
+        <v>2721.194170074416</v>
       </c>
       <c r="AC5" t="n">
-        <v>2158.700056866549</v>
+        <v>2461.487217702517</v>
       </c>
       <c r="AD5" t="n">
-        <v>1744177.422624204</v>
+        <v>1988822.123545351</v>
       </c>
       <c r="AE5" t="n">
-        <v>2386460.497311627</v>
+        <v>2721194.170074416</v>
       </c>
       <c r="AF5" t="n">
         <v>3.279867695735138e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.8515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2158700.056866549</v>
+        <v>2461487.217702517</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1624.335083550601</v>
+        <v>1849.403752960909</v>
       </c>
       <c r="AB6" t="n">
-        <v>2222.486921920267</v>
+        <v>2530.435804736367</v>
       </c>
       <c r="AC6" t="n">
-        <v>2010.375889372182</v>
+        <v>2288.934563021286</v>
       </c>
       <c r="AD6" t="n">
-        <v>1624335.083550601</v>
+        <v>1849403.752960909</v>
       </c>
       <c r="AE6" t="n">
-        <v>2222486.921920267</v>
+        <v>2530435.804736367</v>
       </c>
       <c r="AF6" t="n">
         <v>3.41197850038511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.00260416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2010375.889372182</v>
+        <v>2288934.563021285</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1521.910406663885</v>
+        <v>1747.012230463116</v>
       </c>
       <c r="AB7" t="n">
-        <v>2082.344960346028</v>
+        <v>2390.339206459722</v>
       </c>
       <c r="AC7" t="n">
-        <v>1883.60887992011</v>
+        <v>2162.208587457353</v>
       </c>
       <c r="AD7" t="n">
-        <v>1521910.406663885</v>
+        <v>1747012.230463116</v>
       </c>
       <c r="AE7" t="n">
-        <v>2082344.960346028</v>
+        <v>2390339.206459722</v>
       </c>
       <c r="AF7" t="n">
         <v>3.503829260552334e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.79817708333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1883608.87992011</v>
+        <v>2162208.587457353</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1467.587660791878</v>
+        <v>1682.867808931838</v>
       </c>
       <c r="AB8" t="n">
-        <v>2008.018182893541</v>
+        <v>2302.57397906847</v>
       </c>
       <c r="AC8" t="n">
-        <v>1816.375745789401</v>
+        <v>2082.819550189051</v>
       </c>
       <c r="AD8" t="n">
-        <v>1467587.660791878</v>
+        <v>1682867.808931838</v>
       </c>
       <c r="AE8" t="n">
-        <v>2008018.182893541</v>
+        <v>2302573.97906847</v>
       </c>
       <c r="AF8" t="n">
         <v>3.557830757343563e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.11458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1816375.745789401</v>
+        <v>2082819.550189051</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1464.060992789761</v>
+        <v>1679.34114092972</v>
       </c>
       <c r="AB9" t="n">
-        <v>2003.192840147432</v>
+        <v>2297.748636322362</v>
       </c>
       <c r="AC9" t="n">
-        <v>1812.01092698257</v>
+        <v>2078.45473138222</v>
       </c>
       <c r="AD9" t="n">
-        <v>1464060.992789761</v>
+        <v>1679341.14092972</v>
       </c>
       <c r="AE9" t="n">
-        <v>2003192.840147432</v>
+        <v>2297748.636322361</v>
       </c>
       <c r="AF9" t="n">
         <v>3.563616631999766e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.04296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1812010.92698257</v>
+        <v>2078454.73138222</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3492.011308986623</v>
+        <v>3879.164944153386</v>
       </c>
       <c r="AB2" t="n">
-        <v>4777.923929621948</v>
+        <v>5307.644613270081</v>
       </c>
       <c r="AC2" t="n">
-        <v>4321.925575637002</v>
+        <v>4801.090460705386</v>
       </c>
       <c r="AD2" t="n">
-        <v>3492011.308986623</v>
+        <v>3879164.944153386</v>
       </c>
       <c r="AE2" t="n">
-        <v>4777923.929621949</v>
+        <v>5307644.613270082</v>
       </c>
       <c r="AF2" t="n">
         <v>2.211299891215548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.66927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4321925.575637002</v>
+        <v>4801090.460705386</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1956.554050371302</v>
+        <v>2227.54109573677</v>
       </c>
       <c r="AB3" t="n">
-        <v>2677.043568790763</v>
+        <v>3047.819999364665</v>
       </c>
       <c r="AC3" t="n">
-        <v>2421.550287839619</v>
+        <v>2756.940336267421</v>
       </c>
       <c r="AD3" t="n">
-        <v>1956554.050371302</v>
+        <v>2227541.09573677</v>
       </c>
       <c r="AE3" t="n">
-        <v>2677043.568790764</v>
+        <v>3047819.999364665</v>
       </c>
       <c r="AF3" t="n">
         <v>3.187827649450065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.87369791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2421550.287839619</v>
+        <v>2756940.336267421</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1635.455163571003</v>
+        <v>1877.333241678439</v>
       </c>
       <c r="AB4" t="n">
-        <v>2237.701905987487</v>
+        <v>2568.650163361773</v>
       </c>
       <c r="AC4" t="n">
-        <v>2024.138776714391</v>
+        <v>2323.501796893672</v>
       </c>
       <c r="AD4" t="n">
-        <v>1635455.163571003</v>
+        <v>1877333.24167844</v>
       </c>
       <c r="AE4" t="n">
-        <v>2237701.905987487</v>
+        <v>2568650.163361773</v>
       </c>
       <c r="AF4" t="n">
         <v>3.554750964335051e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.31380208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2024138.776714391</v>
+        <v>2323501.796893672</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1464.750737096615</v>
+        <v>1697.015585861648</v>
       </c>
       <c r="AB5" t="n">
-        <v>2004.136578737442</v>
+        <v>2321.931591619704</v>
       </c>
       <c r="AC5" t="n">
-        <v>1812.864596486094</v>
+        <v>2100.329699366976</v>
       </c>
       <c r="AD5" t="n">
-        <v>1464750.737096615</v>
+        <v>1697015.585861648</v>
       </c>
       <c r="AE5" t="n">
-        <v>2004136.578737442</v>
+        <v>2321931.591619704</v>
       </c>
       <c r="AF5" t="n">
         <v>3.753907759977153e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.74869791666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1812864.596486094</v>
+        <v>2100329.699366976</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1370.095793745186</v>
+        <v>1592.612773552406</v>
       </c>
       <c r="AB6" t="n">
-        <v>1874.625509362634</v>
+        <v>2179.08305789119</v>
       </c>
       <c r="AC6" t="n">
-        <v>1695.713881802491</v>
+        <v>1971.114429208335</v>
       </c>
       <c r="AD6" t="n">
-        <v>1370095.793745186</v>
+        <v>1592612.773552406</v>
       </c>
       <c r="AE6" t="n">
-        <v>1874625.509362634</v>
+        <v>2179083.057891191</v>
       </c>
       <c r="AF6" t="n">
         <v>3.861531564774474e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.47265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1695713.881802491</v>
+        <v>1971114.429208335</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1369.66351371353</v>
+        <v>1592.180493520751</v>
       </c>
       <c r="AB7" t="n">
-        <v>1874.034044752474</v>
+        <v>2178.491593281031</v>
       </c>
       <c r="AC7" t="n">
-        <v>1695.178865744599</v>
+        <v>1970.579413150443</v>
       </c>
       <c r="AD7" t="n">
-        <v>1369663.51371353</v>
+        <v>1592180.493520751</v>
       </c>
       <c r="AE7" t="n">
-        <v>1874034.044752474</v>
+        <v>2178491.593281031</v>
       </c>
       <c r="AF7" t="n">
         <v>3.867598592986088e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.40755208333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1695178.865744599</v>
+        <v>1970579.413150443</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1479.484695851521</v>
+        <v>1741.369853726302</v>
       </c>
       <c r="AB2" t="n">
-        <v>2024.296231122288</v>
+        <v>2382.61905768432</v>
       </c>
       <c r="AC2" t="n">
-        <v>1831.100239941581</v>
+        <v>2155.225238845778</v>
       </c>
       <c r="AD2" t="n">
-        <v>1479484.695851521</v>
+        <v>1741369.853726302</v>
       </c>
       <c r="AE2" t="n">
-        <v>2024296.231122288</v>
+        <v>2382619.05768432</v>
       </c>
       <c r="AF2" t="n">
         <v>4.459457273690872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.75651041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1831100.239941581</v>
+        <v>2155225.238845778</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1177.706360706623</v>
+        <v>1402.136437233574</v>
       </c>
       <c r="AB3" t="n">
-        <v>1611.389799456514</v>
+        <v>1918.464931316876</v>
       </c>
       <c r="AC3" t="n">
-        <v>1457.601018596171</v>
+        <v>1735.369330854435</v>
       </c>
       <c r="AD3" t="n">
-        <v>1177706.360706623</v>
+        <v>1402136.437233574</v>
       </c>
       <c r="AE3" t="n">
-        <v>1611389.799456514</v>
+        <v>1918464.931316876</v>
       </c>
       <c r="AF3" t="n">
         <v>5.072117189759366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.25911458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1457601.018596171</v>
+        <v>1735369.330854435</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2038.113998224696</v>
+        <v>2341.453746079681</v>
       </c>
       <c r="AB2" t="n">
-        <v>2788.637487614732</v>
+        <v>3203.680313035298</v>
       </c>
       <c r="AC2" t="n">
-        <v>2522.493839674076</v>
+        <v>2897.925560352647</v>
       </c>
       <c r="AD2" t="n">
-        <v>2038113.998224696</v>
+        <v>2341453.746079681</v>
       </c>
       <c r="AE2" t="n">
-        <v>2788637.487614732</v>
+        <v>3203680.313035298</v>
       </c>
       <c r="AF2" t="n">
         <v>3.409122443279966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.89192708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2522493.839674076</v>
+        <v>2897925.560352647</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1352.166484298795</v>
+        <v>1589.162406673206</v>
       </c>
       <c r="AB3" t="n">
-        <v>1850.093837192775</v>
+        <v>2174.362113707625</v>
       </c>
       <c r="AC3" t="n">
-        <v>1673.523477994105</v>
+        <v>1966.844045311762</v>
       </c>
       <c r="AD3" t="n">
-        <v>1352166.484298795</v>
+        <v>1589162.406673206</v>
       </c>
       <c r="AE3" t="n">
-        <v>1850093.837192775</v>
+        <v>2174362.113707625</v>
       </c>
       <c r="AF3" t="n">
         <v>4.344941220966713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.7734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1673523.477994105</v>
+        <v>1966844.045311762</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1233.400223600395</v>
+        <v>1460.913575846326</v>
       </c>
       <c r="AB4" t="n">
-        <v>1687.592599707594</v>
+        <v>1998.88640543119</v>
       </c>
       <c r="AC4" t="n">
-        <v>1526.53113054259</v>
+        <v>1808.115492351526</v>
       </c>
       <c r="AD4" t="n">
-        <v>1233400.223600395</v>
+        <v>1460913.575846327</v>
       </c>
       <c r="AE4" t="n">
-        <v>1687592.599707594</v>
+        <v>1998886.40543119</v>
       </c>
       <c r="AF4" t="n">
         <v>4.542626959353693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.69661458333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1526531.13054259</v>
+        <v>1808115.492351526</v>
       </c>
     </row>
   </sheetData>
@@ -5655,28 +5655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1155.994003283048</v>
+        <v>1396.457995416093</v>
       </c>
       <c r="AB2" t="n">
-        <v>1581.681994147973</v>
+        <v>1910.695436707026</v>
       </c>
       <c r="AC2" t="n">
-        <v>1430.728484531111</v>
+        <v>1728.341345905595</v>
       </c>
       <c r="AD2" t="n">
-        <v>1155994.003283048</v>
+        <v>1396457.995416093</v>
       </c>
       <c r="AE2" t="n">
-        <v>1581681.994147973</v>
+        <v>1910695.436707026</v>
       </c>
       <c r="AF2" t="n">
         <v>5.509585591410465e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.83072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1430728.484531111</v>
+        <v>1728341.345905595</v>
       </c>
     </row>
     <row r="3">
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1148.750502752487</v>
+        <v>1379.930097305431</v>
       </c>
       <c r="AB3" t="n">
-        <v>1571.771117161369</v>
+        <v>1888.081237352615</v>
       </c>
       <c r="AC3" t="n">
-        <v>1421.763487734106</v>
+        <v>1707.885413998341</v>
       </c>
       <c r="AD3" t="n">
-        <v>1148750.502752487</v>
+        <v>1379930.097305431</v>
       </c>
       <c r="AE3" t="n">
-        <v>1571771.117161369</v>
+        <v>1888081.237352615</v>
       </c>
       <c r="AF3" t="n">
         <v>5.55639492938571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.40755208333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1421763.487734106</v>
+        <v>1707885.413998341</v>
       </c>
     </row>
   </sheetData>
@@ -6058,28 +6058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3812.790111601667</v>
+        <v>4210.754703027081</v>
       </c>
       <c r="AB2" t="n">
-        <v>5216.827639121868</v>
+        <v>5761.340350068814</v>
       </c>
       <c r="AC2" t="n">
-        <v>4718.940931107458</v>
+        <v>5211.486113149996</v>
       </c>
       <c r="AD2" t="n">
-        <v>3812790.111601667</v>
+        <v>4210754.703027081</v>
       </c>
       <c r="AE2" t="n">
-        <v>5216827.639121868</v>
+        <v>5761340.350068814</v>
       </c>
       <c r="AF2" t="n">
         <v>2.068558725496161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>82</v>
+        <v>81.015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4718940.931107458</v>
+        <v>5211486.113149996</v>
       </c>
     </row>
     <row r="3">
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2062.50237140832</v>
+        <v>2343.958807417956</v>
       </c>
       <c r="AB3" t="n">
-        <v>2822.006735743655</v>
+        <v>3207.107848473833</v>
       </c>
       <c r="AC3" t="n">
-        <v>2552.678373595609</v>
+        <v>2901.025976619505</v>
       </c>
       <c r="AD3" t="n">
-        <v>2062502.37140832</v>
+        <v>2343958.807417957</v>
       </c>
       <c r="AE3" t="n">
-        <v>2822006.735743655</v>
+        <v>3207107.848473833</v>
       </c>
       <c r="AF3" t="n">
         <v>3.050068733001994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.94140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2552678.373595609</v>
+        <v>2901025.976619505</v>
       </c>
     </row>
     <row r="4">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1704.298891853974</v>
+        <v>1956.628541767127</v>
       </c>
       <c r="AB4" t="n">
-        <v>2331.896932195188</v>
+        <v>2677.145491204861</v>
       </c>
       <c r="AC4" t="n">
-        <v>2109.343961824378</v>
+        <v>2421.642482921564</v>
       </c>
       <c r="AD4" t="n">
-        <v>1704298.891853974</v>
+        <v>1956628.541767127</v>
       </c>
       <c r="AE4" t="n">
-        <v>2331896.932195188</v>
+        <v>2677145.491204861</v>
       </c>
       <c r="AF4" t="n">
         <v>3.423830215010508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.9453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2109343.961824378</v>
+        <v>2421642.482921564</v>
       </c>
     </row>
     <row r="5">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1540.679682331733</v>
+        <v>1773.558320458309</v>
       </c>
       <c r="AB5" t="n">
-        <v>2108.02591135678</v>
+        <v>2426.660737921982</v>
       </c>
       <c r="AC5" t="n">
-        <v>1906.838877009837</v>
+        <v>2195.063642934444</v>
       </c>
       <c r="AD5" t="n">
-        <v>1540679.682331733</v>
+        <v>1773558.320458309</v>
       </c>
       <c r="AE5" t="n">
-        <v>2108025.91135678</v>
+        <v>2426660.737921982</v>
       </c>
       <c r="AF5" t="n">
         <v>3.621522238552202e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.27604166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1906838.877009837</v>
+        <v>2195063.642934443</v>
       </c>
     </row>
     <row r="6">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1423.432941533974</v>
+        <v>1646.704136188209</v>
       </c>
       <c r="AB6" t="n">
-        <v>1947.603748036143</v>
+        <v>2253.093246591995</v>
       </c>
       <c r="AC6" t="n">
-        <v>1761.727179802602</v>
+        <v>2038.061189373487</v>
       </c>
       <c r="AD6" t="n">
-        <v>1423432.941533974</v>
+        <v>1646704.136188209</v>
       </c>
       <c r="AE6" t="n">
-        <v>1947603.748036143</v>
+        <v>2253093.246591995</v>
       </c>
       <c r="AF6" t="n">
         <v>3.744050107309814e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.75911458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1761727.179802602</v>
+        <v>2038061.189373487</v>
       </c>
     </row>
     <row r="7">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1391.26133338581</v>
+        <v>1614.43104281356</v>
       </c>
       <c r="AB7" t="n">
-        <v>1903.585134456644</v>
+        <v>2208.935776448407</v>
       </c>
       <c r="AC7" t="n">
-        <v>1721.909640922618</v>
+        <v>1998.118046205005</v>
       </c>
       <c r="AD7" t="n">
-        <v>1391261.33338581</v>
+        <v>1614431.04281356</v>
       </c>
       <c r="AE7" t="n">
-        <v>1903585.134456645</v>
+        <v>2208935.776448407</v>
       </c>
       <c r="AF7" t="n">
         <v>3.784463711080708e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.28385416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1721909.640922618</v>
+        <v>1998118.046205005</v>
       </c>
     </row>
     <row r="8">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1395.87485765367</v>
+        <v>1619.04456708142</v>
       </c>
       <c r="AB8" t="n">
-        <v>1909.897561894256</v>
+        <v>2215.248203886019</v>
       </c>
       <c r="AC8" t="n">
-        <v>1727.619619145132</v>
+        <v>2003.828024427518</v>
       </c>
       <c r="AD8" t="n">
-        <v>1395874.85765367</v>
+        <v>1619044.56708142</v>
       </c>
       <c r="AE8" t="n">
-        <v>1909897.561894256</v>
+        <v>2215248.203886019</v>
       </c>
       <c r="AF8" t="n">
         <v>3.783948888102735e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.29036458333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1727619.619145132</v>
+        <v>2003828.024427518</v>
       </c>
     </row>
   </sheetData>
@@ -6991,28 +6991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1138.157320074921</v>
+        <v>1376.983312289777</v>
       </c>
       <c r="AB2" t="n">
-        <v>1557.277057283687</v>
+        <v>1884.049316091217</v>
       </c>
       <c r="AC2" t="n">
-        <v>1408.652720588609</v>
+        <v>1704.238293643294</v>
       </c>
       <c r="AD2" t="n">
-        <v>1138157.320074921</v>
+        <v>1376983.312289777</v>
       </c>
       <c r="AE2" t="n">
-        <v>1557277.057283687</v>
+        <v>1884049.316091217</v>
       </c>
       <c r="AF2" t="n">
         <v>5.848084269683909e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.3671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1408652.720588609</v>
+        <v>1704238.293643294</v>
       </c>
     </row>
   </sheetData>
@@ -7288,28 +7288,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2691.668174979661</v>
+        <v>3036.749654932668</v>
       </c>
       <c r="AB2" t="n">
-        <v>3682.859145026447</v>
+        <v>4155.014849818624</v>
       </c>
       <c r="AC2" t="n">
-        <v>3331.372237150259</v>
+        <v>3758.466064151745</v>
       </c>
       <c r="AD2" t="n">
-        <v>2691668.174979661</v>
+        <v>3036749.654932668</v>
       </c>
       <c r="AE2" t="n">
-        <v>3682859.145026447</v>
+        <v>4155014.849818625</v>
       </c>
       <c r="AF2" t="n">
         <v>2.717701568412458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.7109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3331372.237150258</v>
+        <v>3758466.064151745</v>
       </c>
     </row>
     <row r="3">
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1653.314942332801</v>
+        <v>1912.100428233471</v>
       </c>
       <c r="AB3" t="n">
-        <v>2262.13844320721</v>
+        <v>2616.220161826386</v>
       </c>
       <c r="AC3" t="n">
-        <v>2046.243125118759</v>
+        <v>2366.531781469735</v>
       </c>
       <c r="AD3" t="n">
-        <v>1653314.942332801</v>
+        <v>1912100.428233471</v>
       </c>
       <c r="AE3" t="n">
-        <v>2262138.44320721</v>
+        <v>2616220.161826386</v>
       </c>
       <c r="AF3" t="n">
         <v>3.674561983422902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.8203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2046243.125118759</v>
+        <v>2366531.781469734</v>
       </c>
     </row>
     <row r="4">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1396.09086532008</v>
+        <v>1626.077865481047</v>
       </c>
       <c r="AB4" t="n">
-        <v>1910.193113113024</v>
+        <v>2224.871473043615</v>
       </c>
       <c r="AC4" t="n">
-        <v>1727.886963370389</v>
+        <v>2012.532862283057</v>
       </c>
       <c r="AD4" t="n">
-        <v>1396090.86532008</v>
+        <v>1626077.865481047</v>
       </c>
       <c r="AE4" t="n">
-        <v>1910193.113113024</v>
+        <v>2224871.473043615</v>
       </c>
       <c r="AF4" t="n">
         <v>4.033958296374966e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.2890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1727886.963370389</v>
+        <v>2012532.862283057</v>
       </c>
     </row>
     <row r="5">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1296.941197673088</v>
+        <v>1517.441239276948</v>
       </c>
       <c r="AB5" t="n">
-        <v>1774.532163663788</v>
+        <v>2076.230048361471</v>
       </c>
       <c r="AC5" t="n">
-        <v>1605.173304535249</v>
+        <v>1878.077566553026</v>
       </c>
       <c r="AD5" t="n">
-        <v>1296941.197673088</v>
+        <v>1517441.239276948</v>
       </c>
       <c r="AE5" t="n">
-        <v>1774532.163663788</v>
+        <v>2076230.048361471</v>
       </c>
       <c r="AF5" t="n">
         <v>4.162170708098489e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.86328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1605173.304535249</v>
+        <v>1878077.566553026</v>
       </c>
     </row>
     <row r="6">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1299.650738755459</v>
+        <v>1520.150780359318</v>
       </c>
       <c r="AB6" t="n">
-        <v>1778.239477309203</v>
+        <v>2079.937362006886</v>
       </c>
       <c r="AC6" t="n">
-        <v>1608.526797369593</v>
+        <v>1881.43105938737</v>
       </c>
       <c r="AD6" t="n">
-        <v>1299650.738755459</v>
+        <v>1520150.780359318</v>
       </c>
       <c r="AE6" t="n">
-        <v>1778239.477309203</v>
+        <v>2079937.362006886</v>
       </c>
       <c r="AF6" t="n">
         <v>4.162170708098489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.86328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1608526.797369593</v>
+        <v>1881431.05938737</v>
       </c>
     </row>
   </sheetData>
@@ -8009,28 +8009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3205.632657989799</v>
+        <v>3572.339929041357</v>
       </c>
       <c r="AB2" t="n">
-        <v>4386.088025193663</v>
+        <v>4887.833091429447</v>
       </c>
       <c r="AC2" t="n">
-        <v>3967.48593998222</v>
+        <v>4421.345161300065</v>
       </c>
       <c r="AD2" t="n">
-        <v>3205632.657989799</v>
+        <v>3572339.929041357</v>
       </c>
       <c r="AE2" t="n">
-        <v>4386088.025193663</v>
+        <v>4887833.091429447</v>
       </c>
       <c r="AF2" t="n">
         <v>2.365464335931601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>75</v>
+        <v>74.51822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3967485.93998222</v>
+        <v>4421345.161300065</v>
       </c>
     </row>
     <row r="3">
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1854.515915162838</v>
+        <v>2124.643951042534</v>
       </c>
       <c r="AB3" t="n">
-        <v>2537.430490593726</v>
+        <v>2907.031586492195</v>
       </c>
       <c r="AC3" t="n">
-        <v>2295.261685877521</v>
+        <v>2629.588571921836</v>
       </c>
       <c r="AD3" t="n">
-        <v>1854515.915162838</v>
+        <v>2124643.951042534</v>
       </c>
       <c r="AE3" t="n">
-        <v>2537430.490593726</v>
+        <v>2907031.586492195</v>
       </c>
       <c r="AF3" t="n">
         <v>3.335800169739413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.83854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2295261.685877521</v>
+        <v>2629588.571921836</v>
       </c>
     </row>
     <row r="4">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1554.133462947406</v>
+        <v>1795.342392945593</v>
       </c>
       <c r="AB4" t="n">
-        <v>2126.433967534056</v>
+        <v>2456.466666944535</v>
       </c>
       <c r="AC4" t="n">
-        <v>1923.490094141422</v>
+        <v>2222.024935923968</v>
       </c>
       <c r="AD4" t="n">
-        <v>1554133.462947406</v>
+        <v>1795342.392945593</v>
       </c>
       <c r="AE4" t="n">
-        <v>2126433.967534055</v>
+        <v>2456466.666944535</v>
       </c>
       <c r="AF4" t="n">
         <v>3.698863884342169e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1923490.094141422</v>
+        <v>2222024.935923968</v>
       </c>
     </row>
     <row r="5">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1398.567278672917</v>
+        <v>1620.44087341532</v>
       </c>
       <c r="AB5" t="n">
-        <v>1913.581451114022</v>
+        <v>2217.15869181275</v>
       </c>
       <c r="AC5" t="n">
-        <v>1730.951923148134</v>
+        <v>2005.556178067908</v>
       </c>
       <c r="AD5" t="n">
-        <v>1398567.278672917</v>
+        <v>1620440.87341532</v>
       </c>
       <c r="AE5" t="n">
-        <v>1913581.451114022</v>
+        <v>2217158.69181275</v>
       </c>
       <c r="AF5" t="n">
         <v>3.896775573659555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1730951.923148134</v>
+        <v>2005556.178067908</v>
       </c>
     </row>
     <row r="6">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1344.604115841521</v>
+        <v>1566.545030391629</v>
       </c>
       <c r="AB6" t="n">
-        <v>1839.746671041383</v>
+        <v>2143.416021670952</v>
       </c>
       <c r="AC6" t="n">
-        <v>1664.163830857863</v>
+        <v>1938.851404865957</v>
       </c>
       <c r="AD6" t="n">
-        <v>1344604.115841521</v>
+        <v>1566545.030391629</v>
       </c>
       <c r="AE6" t="n">
-        <v>1839746.671041383</v>
+        <v>2143416.021670952</v>
       </c>
       <c r="AF6" t="n">
         <v>3.956880081222427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.54427083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1664163.830857863</v>
+        <v>1938851.404865956</v>
       </c>
     </row>
     <row r="7">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1348.506537729722</v>
+        <v>1570.44745227983</v>
       </c>
       <c r="AB7" t="n">
-        <v>1845.086136831522</v>
+        <v>2148.755487461091</v>
       </c>
       <c r="AC7" t="n">
-        <v>1668.993705526978</v>
+        <v>1943.681279535072</v>
       </c>
       <c r="AD7" t="n">
-        <v>1348506.537729722</v>
+        <v>1570447.45227983</v>
       </c>
       <c r="AE7" t="n">
-        <v>1845086.136831522</v>
+        <v>2148755.487461091</v>
       </c>
       <c r="AF7" t="n">
         <v>3.956880081222427e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.54427083333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1668993.705526978</v>
+        <v>1943681.279535071</v>
       </c>
     </row>
   </sheetData>
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4528.540876696421</v>
+        <v>4967.732800005859</v>
       </c>
       <c r="AB2" t="n">
-        <v>6196.14941261975</v>
+        <v>6797.07117787194</v>
       </c>
       <c r="AC2" t="n">
-        <v>5604.797609029407</v>
+        <v>6148.368244404899</v>
       </c>
       <c r="AD2" t="n">
-        <v>4528540.876696421</v>
+        <v>4967732.800005859</v>
       </c>
       <c r="AE2" t="n">
-        <v>6196149.41261975</v>
+        <v>6797071.17787194</v>
       </c>
       <c r="AF2" t="n">
         <v>1.813643487682255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>89</v>
+        <v>88.34635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5604797.609029407</v>
+        <v>6148368.244404899</v>
       </c>
     </row>
     <row r="3">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2290.264927102004</v>
+        <v>2573.285656201883</v>
       </c>
       <c r="AB3" t="n">
-        <v>3133.641512618724</v>
+        <v>3520.882960166552</v>
       </c>
       <c r="AC3" t="n">
-        <v>2834.571164747761</v>
+        <v>3184.854832038395</v>
       </c>
       <c r="AD3" t="n">
-        <v>2290264.927102004</v>
+        <v>2573285.656201883</v>
       </c>
       <c r="AE3" t="n">
-        <v>3133641.512618724</v>
+        <v>3520882.960166553</v>
       </c>
       <c r="AF3" t="n">
         <v>2.80353005403563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.15494791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2834571.164747761</v>
+        <v>3184854.832038395</v>
       </c>
     </row>
     <row r="4">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1871.414676247266</v>
+        <v>2125.112734998051</v>
       </c>
       <c r="AB4" t="n">
-        <v>2560.552121030164</v>
+        <v>2907.672997381422</v>
       </c>
       <c r="AC4" t="n">
-        <v>2316.176620356517</v>
+        <v>2630.168767456021</v>
       </c>
       <c r="AD4" t="n">
-        <v>1871414.676247266</v>
+        <v>2125112.734998051</v>
       </c>
       <c r="AE4" t="n">
-        <v>2560552.121030163</v>
+        <v>2907672.997381422</v>
       </c>
       <c r="AF4" t="n">
         <v>3.182305644691484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.3515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2316176.620356517</v>
+        <v>2630168.767456021</v>
       </c>
     </row>
     <row r="5">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1679.242748087476</v>
+        <v>1913.449302303499</v>
       </c>
       <c r="AB5" t="n">
-        <v>2297.614010894816</v>
+        <v>2618.065750837123</v>
       </c>
       <c r="AC5" t="n">
-        <v>2078.332954416532</v>
+        <v>2368.201230055587</v>
       </c>
       <c r="AD5" t="n">
-        <v>1679242.748087476</v>
+        <v>1913449.302303499</v>
       </c>
       <c r="AE5" t="n">
-        <v>2297614.010894816</v>
+        <v>2618065.750837123</v>
       </c>
       <c r="AF5" t="n">
         <v>3.387814168536604e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.29817708333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2078332.954416532</v>
+        <v>2368201.230055586</v>
       </c>
     </row>
     <row r="6">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1552.04716053877</v>
+        <v>1776.592365004507</v>
       </c>
       <c r="AB6" t="n">
-        <v>2123.579396537393</v>
+        <v>2430.812051522689</v>
       </c>
       <c r="AC6" t="n">
-        <v>1920.907959394266</v>
+        <v>2198.818760991505</v>
       </c>
       <c r="AD6" t="n">
-        <v>1552047.16053877</v>
+        <v>1776592.365004507</v>
       </c>
       <c r="AE6" t="n">
-        <v>2123579.396537393</v>
+        <v>2430812.051522689</v>
       </c>
       <c r="AF6" t="n">
         <v>3.519733412585686e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.52083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1920907.959394266</v>
+        <v>2198818.760991505</v>
       </c>
     </row>
     <row r="7">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1463.158736552715</v>
+        <v>1687.568290373187</v>
       </c>
       <c r="AB7" t="n">
-        <v>2001.958333359171</v>
+        <v>2309.00538514713</v>
       </c>
       <c r="AC7" t="n">
-        <v>1810.894239789539</v>
+        <v>2088.637151898099</v>
       </c>
       <c r="AD7" t="n">
-        <v>1463158.736552716</v>
+        <v>1687568.290373187</v>
       </c>
       <c r="AE7" t="n">
-        <v>2001958.333359171</v>
+        <v>2309005.38514713</v>
       </c>
       <c r="AF7" t="n">
         <v>3.60710529996894e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.42057291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1810894.239789539</v>
+        <v>2088637.151898099</v>
       </c>
     </row>
     <row r="8">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1436.505038686126</v>
+        <v>1651.220088367388</v>
       </c>
       <c r="AB8" t="n">
-        <v>1965.489568059943</v>
+        <v>2259.272171593298</v>
       </c>
       <c r="AC8" t="n">
-        <v>1777.906002266236</v>
+        <v>2043.650406444841</v>
       </c>
       <c r="AD8" t="n">
-        <v>1436505.038686126</v>
+        <v>1651220.088367388</v>
       </c>
       <c r="AE8" t="n">
-        <v>1965489.568059943</v>
+        <v>2259272.171593298</v>
       </c>
       <c r="AF8" t="n">
         <v>3.632455453209715e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.11458333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1777906.002266236</v>
+        <v>2043650.406444841</v>
       </c>
     </row>
     <row r="9">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1440.868136907944</v>
+        <v>1655.583186589205</v>
       </c>
       <c r="AB9" t="n">
-        <v>1971.459351533342</v>
+        <v>2265.241955066697</v>
       </c>
       <c r="AC9" t="n">
-        <v>1783.306037983577</v>
+        <v>2049.050442162182</v>
       </c>
       <c r="AD9" t="n">
-        <v>1440868.136907944</v>
+        <v>1655583.186589205</v>
       </c>
       <c r="AE9" t="n">
-        <v>1971459.351533342</v>
+        <v>2265241.955066697</v>
       </c>
       <c r="AF9" t="n">
         <v>3.632209335217087e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.11458333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1783306.037983577</v>
+        <v>2049050.442162182</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2243.366799134765</v>
+        <v>2547.897057562875</v>
       </c>
       <c r="AB2" t="n">
-        <v>3069.473424934562</v>
+        <v>3486.145159442738</v>
       </c>
       <c r="AC2" t="n">
-        <v>2776.527189291701</v>
+        <v>3153.432358260852</v>
       </c>
       <c r="AD2" t="n">
-        <v>2243366.799134765</v>
+        <v>2547897.057562875</v>
       </c>
       <c r="AE2" t="n">
-        <v>3069473.424934562</v>
+        <v>3486145.159442738</v>
       </c>
       <c r="AF2" t="n">
         <v>3.154748657217836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2776527.189291701</v>
+        <v>3153432.358260852</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1452.166851634598</v>
+        <v>1690.126235945969</v>
       </c>
       <c r="AB3" t="n">
-        <v>1986.918751486465</v>
+        <v>2312.505279128404</v>
       </c>
       <c r="AC3" t="n">
-        <v>1797.290014502578</v>
+        <v>2091.803020909932</v>
       </c>
       <c r="AD3" t="n">
-        <v>1452166.851634598</v>
+        <v>1690126.235945969</v>
       </c>
       <c r="AE3" t="n">
-        <v>1986918.751486465</v>
+        <v>2312505.279128404</v>
       </c>
       <c r="AF3" t="n">
         <v>4.096080001347804e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.76302083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1797290.014502578</v>
+        <v>2091803.020909932</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1264.138971103754</v>
+        <v>1482.991551629009</v>
       </c>
       <c r="AB4" t="n">
-        <v>1729.650710139522</v>
+        <v>2029.094465908605</v>
       </c>
       <c r="AC4" t="n">
-        <v>1564.575273943824</v>
+        <v>1835.440537934256</v>
       </c>
       <c r="AD4" t="n">
-        <v>1264138.971103754</v>
+        <v>1482991.551629009</v>
       </c>
       <c r="AE4" t="n">
-        <v>1729650.710139522</v>
+        <v>2029094.465908605</v>
       </c>
       <c r="AF4" t="n">
         <v>4.39277733178251e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.47526041666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1564575.273943824</v>
+        <v>1835440.537934256</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1260.95387502701</v>
+        <v>1479.806455552264</v>
       </c>
       <c r="AB5" t="n">
-        <v>1725.292721170798</v>
+        <v>2024.736476939881</v>
       </c>
       <c r="AC5" t="n">
-        <v>1560.633205325799</v>
+        <v>1831.498469316231</v>
       </c>
       <c r="AD5" t="n">
-        <v>1260953.87502701</v>
+        <v>1479806.455552264</v>
       </c>
       <c r="AE5" t="n">
-        <v>1725292.721170798</v>
+        <v>2024736.476939881</v>
       </c>
       <c r="AF5" t="n">
         <v>4.404743408190942e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.3515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1560633.205325799</v>
+        <v>1831498.469316231</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1669.611580568388</v>
+        <v>1942.10299761388</v>
       </c>
       <c r="AB2" t="n">
-        <v>2284.436222598078</v>
+        <v>2657.271000872606</v>
       </c>
       <c r="AC2" t="n">
-        <v>2066.412835739693</v>
+        <v>2403.664786052598</v>
       </c>
       <c r="AD2" t="n">
-        <v>1669611.580568388</v>
+        <v>1942102.99761388</v>
       </c>
       <c r="AE2" t="n">
-        <v>2284436.222598078</v>
+        <v>2657271.000872606</v>
       </c>
       <c r="AF2" t="n">
         <v>4.043151469508186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.17838541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2066412.835739692</v>
+        <v>2403664.786052598</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1193.999769778336</v>
+        <v>1419.588005207079</v>
       </c>
       <c r="AB3" t="n">
-        <v>1633.683160562908</v>
+        <v>1942.342936527066</v>
       </c>
       <c r="AC3" t="n">
-        <v>1477.7667326075</v>
+        <v>1756.968452760356</v>
       </c>
       <c r="AD3" t="n">
-        <v>1193999.769778336</v>
+        <v>1419588.005207079</v>
       </c>
       <c r="AE3" t="n">
-        <v>1633683.160562908</v>
+        <v>1942342.936527066</v>
       </c>
       <c r="AF3" t="n">
         <v>4.868597701008434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.65364583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1477766.7326075</v>
+        <v>1756968.452760356</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1197.525704713856</v>
+        <v>1423.113940142599</v>
       </c>
       <c r="AB4" t="n">
-        <v>1638.507500294958</v>
+        <v>1947.167276259116</v>
       </c>
       <c r="AC4" t="n">
-        <v>1482.130644126526</v>
+        <v>1761.332364279381</v>
       </c>
       <c r="AD4" t="n">
-        <v>1197525.704713856</v>
+        <v>1423113.940142599</v>
       </c>
       <c r="AE4" t="n">
-        <v>1638507.500294958</v>
+        <v>1947167.276259116</v>
       </c>
       <c r="AF4" t="n">
         <v>4.874179754983076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.59505208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1482130.644126526</v>
+        <v>1761332.364279381</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1304.355060575827</v>
+        <v>1546.208728208302</v>
       </c>
       <c r="AB2" t="n">
-        <v>1784.676137963862</v>
+        <v>2115.59099584939</v>
       </c>
       <c r="AC2" t="n">
-        <v>1614.349152165282</v>
+        <v>1913.681960456135</v>
       </c>
       <c r="AD2" t="n">
-        <v>1304355.060575827</v>
+        <v>1546208.728208302</v>
       </c>
       <c r="AE2" t="n">
-        <v>1784676.137963862</v>
+        <v>2115590.995849391</v>
       </c>
       <c r="AF2" t="n">
         <v>4.962214490272645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1614349.152165282</v>
+        <v>1913681.960456135</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1163.423452183908</v>
+        <v>1386.699350399858</v>
       </c>
       <c r="AB3" t="n">
-        <v>1591.847293898282</v>
+        <v>1897.34322807478</v>
       </c>
       <c r="AC3" t="n">
-        <v>1439.923622340338</v>
+        <v>1716.263453325268</v>
       </c>
       <c r="AD3" t="n">
-        <v>1163423.452183908</v>
+        <v>1386699.350399858</v>
       </c>
       <c r="AE3" t="n">
-        <v>1591847.293898282</v>
+        <v>1897343.22807478</v>
       </c>
       <c r="AF3" t="n">
         <v>5.294857214492265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1439923.622340338</v>
+        <v>1716263.453325268</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1145.575321148768</v>
+        <v>1400.837188391278</v>
       </c>
       <c r="AB2" t="n">
-        <v>1567.426693612035</v>
+        <v>1916.687241732033</v>
       </c>
       <c r="AC2" t="n">
-        <v>1417.833689870883</v>
+        <v>1733.761301468566</v>
       </c>
       <c r="AD2" t="n">
-        <v>1145575.321148768</v>
+        <v>1400837.188391278</v>
       </c>
       <c r="AE2" t="n">
-        <v>1567426.693612035</v>
+        <v>1916687.241732033</v>
       </c>
       <c r="AF2" t="n">
         <v>6.160344582138656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1417833.689870883</v>
+        <v>1733761.301468566</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2944.411687853931</v>
+        <v>3300.299459128405</v>
       </c>
       <c r="AB2" t="n">
-        <v>4028.673969597886</v>
+        <v>4515.615318916022</v>
       </c>
       <c r="AC2" t="n">
-        <v>3644.18298021874</v>
+        <v>4084.651330584411</v>
       </c>
       <c r="AD2" t="n">
-        <v>2944411.687853931</v>
+        <v>3300299.459128405</v>
       </c>
       <c r="AE2" t="n">
-        <v>4028673.969597886</v>
+        <v>4515615.318916022</v>
       </c>
       <c r="AF2" t="n">
         <v>2.530765657434115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3644182.98021874</v>
+        <v>4084651.330584412</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1751.895523313386</v>
+        <v>2011.578942665689</v>
       </c>
       <c r="AB3" t="n">
-        <v>2397.020743173137</v>
+        <v>2752.331053954865</v>
       </c>
       <c r="AC3" t="n">
-        <v>2168.252447684435</v>
+        <v>2489.652441086308</v>
       </c>
       <c r="AD3" t="n">
-        <v>1751895.523313386</v>
+        <v>2011578.942665689</v>
       </c>
       <c r="AE3" t="n">
-        <v>2397020.743173137</v>
+        <v>2752331.053954865</v>
       </c>
       <c r="AF3" t="n">
         <v>3.498976300548827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2168252.447684435</v>
+        <v>2489652.441086308</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1472.253054199243</v>
+        <v>1712.66143774833</v>
       </c>
       <c r="AB4" t="n">
-        <v>2014.401579976128</v>
+        <v>2343.338936417332</v>
       </c>
       <c r="AC4" t="n">
-        <v>1822.14992041358</v>
+        <v>2119.693957222515</v>
       </c>
       <c r="AD4" t="n">
-        <v>1472253.054199242</v>
+        <v>1712661.43774833</v>
       </c>
       <c r="AE4" t="n">
-        <v>2014401.579976128</v>
+        <v>2343338.936417332</v>
       </c>
       <c r="AF4" t="n">
         <v>3.856974830464158e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.9921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1822149.92041358</v>
+        <v>2119693.957222515</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1332.144212299909</v>
+        <v>1562.93216065678</v>
       </c>
       <c r="AB5" t="n">
-        <v>1822.6984813236</v>
+        <v>2138.472733911167</v>
       </c>
       <c r="AC5" t="n">
-        <v>1648.742696439461</v>
+        <v>1934.379897552017</v>
       </c>
       <c r="AD5" t="n">
-        <v>1332144.212299909</v>
+        <v>1562932.16065678</v>
       </c>
       <c r="AE5" t="n">
-        <v>1822698.4813236</v>
+        <v>2138472.733911167</v>
       </c>
       <c r="AF5" t="n">
         <v>4.03736600261434e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.88932291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1648742.696439461</v>
+        <v>1934379.897552017</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319.904033072882</v>
+        <v>1541.139877075097</v>
       </c>
       <c r="AB6" t="n">
-        <v>1805.950928106585</v>
+        <v>2108.65557010701</v>
       </c>
       <c r="AC6" t="n">
-        <v>1633.59350619614</v>
+        <v>1907.408442012677</v>
       </c>
       <c r="AD6" t="n">
-        <v>1319904.033072882</v>
+        <v>1541139.877075097</v>
       </c>
       <c r="AE6" t="n">
-        <v>1805950.928106586</v>
+        <v>2108655.57010701</v>
       </c>
       <c r="AF6" t="n">
         <v>4.0588013733791e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.65494791666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1633593.50619614</v>
+        <v>1907408.442012677</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4154.44543194006</v>
+        <v>4582.741402573955</v>
       </c>
       <c r="AB2" t="n">
-        <v>5684.295521177834</v>
+        <v>6270.308963283839</v>
       </c>
       <c r="AC2" t="n">
-        <v>5141.794334595279</v>
+        <v>5671.879476261696</v>
       </c>
       <c r="AD2" t="n">
-        <v>4154445.431940061</v>
+        <v>4582741.402573955</v>
       </c>
       <c r="AE2" t="n">
-        <v>5684295.521177835</v>
+        <v>6270308.963283839</v>
       </c>
       <c r="AF2" t="n">
         <v>1.9353836558729e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.61588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5141794.334595279</v>
+        <v>5671879.476261696</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2179.096306838564</v>
+        <v>2451.646193233741</v>
       </c>
       <c r="AB3" t="n">
-        <v>2981.535701960716</v>
+        <v>3354.450480579162</v>
       </c>
       <c r="AC3" t="n">
-        <v>2696.982119177225</v>
+        <v>3034.306434713379</v>
       </c>
       <c r="AD3" t="n">
-        <v>2179096.306838564</v>
+        <v>2451646.193233741</v>
       </c>
       <c r="AE3" t="n">
-        <v>2981535.701960716</v>
+        <v>3354450.480579162</v>
       </c>
       <c r="AF3" t="n">
         <v>2.922947502111138e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.02864583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2696982.119177225</v>
+        <v>3034306.434713379</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1788.360212744231</v>
+        <v>2041.436430523627</v>
       </c>
       <c r="AB4" t="n">
-        <v>2446.91333996098</v>
+        <v>2793.183386061497</v>
       </c>
       <c r="AC4" t="n">
-        <v>2213.383365059545</v>
+        <v>2526.605883953291</v>
       </c>
       <c r="AD4" t="n">
-        <v>1788360.212744231</v>
+        <v>2041436.430523627</v>
       </c>
       <c r="AE4" t="n">
-        <v>2446913.33996098</v>
+        <v>2793183.386061497</v>
       </c>
       <c r="AF4" t="n">
         <v>3.298000404490459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.65494791666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2213383.365059545</v>
+        <v>2526605.883953291</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1604.644733320757</v>
+        <v>1838.282458933014</v>
       </c>
       <c r="AB5" t="n">
-        <v>2195.545716058849</v>
+        <v>2515.219159610536</v>
       </c>
       <c r="AC5" t="n">
-        <v>1986.005914385958</v>
+        <v>2275.170173149568</v>
       </c>
       <c r="AD5" t="n">
-        <v>1604644.733320757</v>
+        <v>1838282.458933014</v>
       </c>
       <c r="AE5" t="n">
-        <v>2195545.716058849</v>
+        <v>2515219.159610536</v>
       </c>
       <c r="AF5" t="n">
         <v>3.500745300075792e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.78385416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1986005.914385958</v>
+        <v>2275170.173149568</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1491.292137276038</v>
+        <v>1715.126214287631</v>
       </c>
       <c r="AB6" t="n">
-        <v>2040.451693386864</v>
+        <v>2346.71135241667</v>
       </c>
       <c r="AC6" t="n">
-        <v>1845.713847561959</v>
+        <v>2122.744514572091</v>
       </c>
       <c r="AD6" t="n">
-        <v>1491292.137276038</v>
+        <v>1715126.214287631</v>
       </c>
       <c r="AE6" t="n">
-        <v>2040451.693386864</v>
+        <v>2346711.35241667</v>
       </c>
       <c r="AF6" t="n">
         <v>3.630793824911546e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1845713.847561959</v>
+        <v>2122744.514572091</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1416.802741218223</v>
+        <v>1640.602652811035</v>
       </c>
       <c r="AB7" t="n">
-        <v>1938.532015460339</v>
+        <v>2244.744927856898</v>
       </c>
       <c r="AC7" t="n">
-        <v>1753.521240651576</v>
+        <v>2030.509622461528</v>
       </c>
       <c r="AD7" t="n">
-        <v>1416802.741218223</v>
+        <v>1640602.652811035</v>
       </c>
       <c r="AE7" t="n">
-        <v>1938532.015460339</v>
+        <v>2244744.927856898</v>
       </c>
       <c r="AF7" t="n">
         <v>3.701729383912866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.23828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1753521.240651576</v>
+        <v>2030509.622461528</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1417.143844794875</v>
+        <v>1631.275758432289</v>
       </c>
       <c r="AB8" t="n">
-        <v>1938.998728422342</v>
+        <v>2231.983459494357</v>
       </c>
       <c r="AC8" t="n">
-        <v>1753.943411183521</v>
+        <v>2018.966090728675</v>
       </c>
       <c r="AD8" t="n">
-        <v>1417143.844794875</v>
+        <v>1631275.758432289</v>
       </c>
       <c r="AE8" t="n">
-        <v>1938998.728422342</v>
+        <v>2231983.459494357</v>
       </c>
       <c r="AF8" t="n">
         <v>3.70499946287392e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.19921875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1753943.411183521</v>
+        <v>2018966.090728675</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1208.5746956802</v>
+        <v>1497.388464482523</v>
       </c>
       <c r="AB2" t="n">
-        <v>1653.625217182189</v>
+        <v>2048.792957221752</v>
       </c>
       <c r="AC2" t="n">
-        <v>1495.805547331889</v>
+        <v>1853.259032883483</v>
       </c>
       <c r="AD2" t="n">
-        <v>1208574.6956802</v>
+        <v>1497388.464482523</v>
       </c>
       <c r="AE2" t="n">
-        <v>1653625.217182189</v>
+        <v>2048792.957221752</v>
       </c>
       <c r="AF2" t="n">
         <v>6.40300840149136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.05078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1495805.547331889</v>
+        <v>1853259.032883483</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1849.801578590669</v>
+        <v>2132.959163760839</v>
       </c>
       <c r="AB2" t="n">
-        <v>2530.980127313833</v>
+        <v>2918.408827374674</v>
       </c>
       <c r="AC2" t="n">
-        <v>2289.426936215919</v>
+        <v>2639.879984902549</v>
       </c>
       <c r="AD2" t="n">
-        <v>1849801.578590669</v>
+        <v>2132959.163760839</v>
       </c>
       <c r="AE2" t="n">
-        <v>2530980.127313833</v>
+        <v>2918408.827374674</v>
       </c>
       <c r="AF2" t="n">
         <v>3.703513698034565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.48307291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2289426.936215919</v>
+        <v>2639879.984902549</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1254.416401447605</v>
+        <v>1490.391601704127</v>
       </c>
       <c r="AB3" t="n">
-        <v>1716.347861406478</v>
+        <v>2039.219540888549</v>
       </c>
       <c r="AC3" t="n">
-        <v>1552.542030423196</v>
+        <v>1844.599289968747</v>
       </c>
       <c r="AD3" t="n">
-        <v>1254416.401447605</v>
+        <v>1490391.601704126</v>
       </c>
       <c r="AE3" t="n">
-        <v>1716347.861406478</v>
+        <v>2039219.540888549</v>
       </c>
       <c r="AF3" t="n">
         <v>4.618413326995674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.89453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1552542.030423196</v>
+        <v>1844599.289968747</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1220.043300571759</v>
+        <v>1437.167461555889</v>
       </c>
       <c r="AB4" t="n">
-        <v>1669.317068353959</v>
+        <v>1966.395924254387</v>
       </c>
       <c r="AC4" t="n">
-        <v>1509.999790251476</v>
+        <v>1778.72585709756</v>
       </c>
       <c r="AD4" t="n">
-        <v>1220043.300571759</v>
+        <v>1437167.461555889</v>
       </c>
       <c r="AE4" t="n">
-        <v>1669317.068353959</v>
+        <v>1966395.924254387</v>
       </c>
       <c r="AF4" t="n">
         <v>4.699922566666754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.08723958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1509999.790251476</v>
+        <v>1778725.857097561</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2456.427335100394</v>
+        <v>2781.227234532987</v>
       </c>
       <c r="AB2" t="n">
-        <v>3360.992249810211</v>
+        <v>3805.397801374171</v>
       </c>
       <c r="AC2" t="n">
-        <v>3040.223866670446</v>
+        <v>3442.215976120234</v>
       </c>
       <c r="AD2" t="n">
-        <v>2456427.335100394</v>
+        <v>2781227.234532987</v>
       </c>
       <c r="AE2" t="n">
-        <v>3360992.24981021</v>
+        <v>3805397.801374171</v>
       </c>
       <c r="AF2" t="n">
         <v>2.923597736601975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.97005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3040223.866670446</v>
+        <v>3442215.976120234</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1553.777565080963</v>
+        <v>1802.137880920578</v>
       </c>
       <c r="AB3" t="n">
-        <v>2125.947012372082</v>
+        <v>2465.76455338768</v>
       </c>
       <c r="AC3" t="n">
-        <v>1923.049613296662</v>
+        <v>2230.435445134646</v>
       </c>
       <c r="AD3" t="n">
-        <v>1553777.565080963</v>
+        <v>1802137.880920578</v>
       </c>
       <c r="AE3" t="n">
-        <v>2125947.012372082</v>
+        <v>2465764.55338768</v>
       </c>
       <c r="AF3" t="n">
         <v>3.872159896152032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.81119791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1923049.613296662</v>
+        <v>2230435.445134646</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1313.078301965377</v>
+        <v>1542.328721906748</v>
       </c>
       <c r="AB4" t="n">
-        <v>1796.611661675293</v>
+        <v>2110.282200053807</v>
       </c>
       <c r="AC4" t="n">
-        <v>1625.145566245306</v>
+        <v>1908.879828680341</v>
       </c>
       <c r="AD4" t="n">
-        <v>1313078.301965377</v>
+        <v>1542328.721906748</v>
       </c>
       <c r="AE4" t="n">
-        <v>1796611.661675293</v>
+        <v>2110282.200053807</v>
       </c>
       <c r="AF4" t="n">
         <v>4.223797398770995e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.65755208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1625145.566245306</v>
+        <v>1908879.828680341</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1284.792895042089</v>
+        <v>1504.455212645414</v>
       </c>
       <c r="AB5" t="n">
-        <v>1757.910320058767</v>
+        <v>2058.461993821145</v>
       </c>
       <c r="AC5" t="n">
-        <v>1590.137826354988</v>
+        <v>1862.005270200408</v>
       </c>
       <c r="AD5" t="n">
-        <v>1284792.895042089</v>
+        <v>1504455.212645414</v>
       </c>
       <c r="AE5" t="n">
-        <v>1757910.320058767</v>
+        <v>2058461.993821145</v>
       </c>
       <c r="AF5" t="n">
         <v>4.274750768990423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.1171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1590137.826354987</v>
+        <v>1862005.270200408</v>
       </c>
     </row>
   </sheetData>
